--- a/test/sample_forms/Form-4SF-update.xlsx
+++ b/test/sample_forms/Form-4SF-update.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\base\forms\base-form-management\test\sample_forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083CAC31-5DDD-443C-9DAC-F655D0EF0038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FBD204-F45F-4AC4-A2E8-9A1D162EB0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,6 @@
     <t>YFT</t>
   </si>
   <si>
-    <t>FI</t>
-  </si>
-  <si>
     <t>OB</t>
   </si>
   <si>
@@ -478,6 +475,9 @@
   </si>
   <si>
     <t>4SF-update</t>
+  </si>
+  <si>
+    <t>PR</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1527,7 @@
   <dimension ref="B1:H38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1567,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
@@ -1740,7 +1740,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H18" s="11"/>
     </row>
@@ -1820,14 +1820,14 @@
         <v>30</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="47" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H25" s="11"/>
     </row>
@@ -1840,7 +1840,7 @@
         <v>33</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="11"/>
     </row>
@@ -1850,14 +1850,14 @@
         <v>6</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="47" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="11"/>
     </row>
@@ -1867,7 +1867,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="14" t="s">
@@ -1884,7 +1884,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -1897,14 +1897,14 @@
         <v>24</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="47" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" s="11"/>
     </row>
@@ -1923,7 +1923,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H31" s="11"/>
     </row>
@@ -2114,13 +2114,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="55">
         <v>39</v>
@@ -2137,13 +2137,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="56">
         <v>36</v>
@@ -2160,13 +2160,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="56">
         <v>27</v>
@@ -2183,13 +2183,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="56">
         <v>28</v>
@@ -2206,13 +2206,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="56">
         <v>29</v>
@@ -2229,13 +2229,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>65</v>
-      </c>
       <c r="E11" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="56">
         <v>28</v>
@@ -2252,13 +2252,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="56">
         <v>30</v>
@@ -2275,13 +2275,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="56">
         <v>31</v>
@@ -2298,13 +2298,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="56">
         <v>32</v>
@@ -2321,13 +2321,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="56">
         <v>33</v>
@@ -2344,13 +2344,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="56">
         <v>28</v>
@@ -2367,13 +2367,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="56">
         <v>29</v>
@@ -2390,13 +2390,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="56">
         <v>31</v>
@@ -2413,13 +2413,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="56">
         <v>34</v>
@@ -2436,13 +2436,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="56">
         <v>32</v>
@@ -2459,13 +2459,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="56">
         <v>33</v>
@@ -2482,13 +2482,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="56">
         <v>32</v>
@@ -2505,13 +2505,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="56">
         <v>32</v>
@@ -2528,13 +2528,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="56">
         <v>33</v>
@@ -2551,13 +2551,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="56">
         <v>35</v>
@@ -2574,13 +2574,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="56">
         <v>30</v>
@@ -2597,13 +2597,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="56">
         <v>31</v>
@@ -2620,13 +2620,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="56">
         <v>32</v>
@@ -2643,13 +2643,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F29" s="56">
         <v>35</v>
@@ -2666,13 +2666,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" s="56">
         <v>32</v>
@@ -2689,13 +2689,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F31" s="56">
         <v>33</v>
@@ -2712,13 +2712,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" s="56">
         <v>34</v>
@@ -2735,13 +2735,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="56">
         <v>35</v>
@@ -2758,13 +2758,13 @@
         <v>6</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F34" s="56">
         <v>36</v>
@@ -2781,13 +2781,13 @@
         <v>6</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" s="56">
         <v>41</v>
@@ -2804,13 +2804,13 @@
         <v>6</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F36" s="56">
         <v>24</v>
@@ -2827,13 +2827,13 @@
         <v>6</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F37" s="56">
         <v>27</v>
@@ -2850,13 +2850,13 @@
         <v>6</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F38" s="56">
         <v>29</v>
@@ -2873,13 +2873,13 @@
         <v>6</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F39" s="56">
         <v>30</v>
@@ -2896,13 +2896,13 @@
         <v>6</v>
       </c>
       <c r="C40" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="29" t="s">
-        <v>74</v>
-      </c>
       <c r="E40" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F40" s="56">
         <v>31</v>
@@ -2919,13 +2919,13 @@
         <v>6</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F41" s="56">
         <v>33</v>
@@ -2942,13 +2942,13 @@
         <v>6</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F42" s="56">
         <v>34</v>
@@ -2965,13 +2965,13 @@
         <v>6</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F43" s="56">
         <v>36</v>
@@ -2988,13 +2988,13 @@
         <v>6</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44" s="56">
         <v>41</v>
@@ -3011,13 +3011,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F45" s="56">
         <v>36</v>
@@ -3034,13 +3034,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F46" s="56">
         <v>31</v>
@@ -3057,13 +3057,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F47" s="56">
         <v>32</v>
@@ -3080,13 +3080,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F48" s="56">
         <v>33</v>
@@ -3103,13 +3103,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F49" s="56">
         <v>34</v>
@@ -3126,13 +3126,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50" s="56">
         <v>35</v>
@@ -3149,13 +3149,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F51" s="56">
         <v>49</v>
@@ -3172,13 +3172,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F52" s="56">
         <v>32</v>
@@ -3195,13 +3195,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F53" s="56">
         <v>33</v>
@@ -3218,13 +3218,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F54" s="56">
         <v>34</v>
@@ -3241,13 +3241,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F55" s="56">
         <v>38</v>
@@ -3264,13 +3264,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F56" s="57">
         <v>128</v>
@@ -3287,13 +3287,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F57" s="57">
         <v>10</v>
@@ -3310,13 +3310,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F58" s="57">
         <v>33</v>
@@ -3333,13 +3333,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F59" s="57">
         <v>36</v>
@@ -3356,13 +3356,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F60" s="57">
         <v>43</v>
@@ -3379,13 +3379,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F61" s="57">
         <v>49</v>
@@ -3402,13 +3402,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F62" s="57">
         <v>28</v>
@@ -3425,13 +3425,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F63" s="57">
         <v>29</v>
@@ -3448,13 +3448,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F64" s="57">
         <v>30</v>
@@ -3471,13 +3471,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F65" s="57">
         <v>33</v>
@@ -3494,13 +3494,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F66" s="57">
         <v>35</v>
@@ -3517,13 +3517,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F67" s="57">
         <v>37</v>
@@ -3540,13 +3540,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F68" s="57">
         <v>38</v>
@@ -3563,13 +3563,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F69" s="57">
         <v>21</v>
@@ -3586,13 +3586,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F70" s="57">
         <v>25</v>
@@ -3609,13 +3609,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F71" s="57">
         <v>26</v>
@@ -3632,13 +3632,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E72" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F72" s="57">
         <v>27</v>
@@ -3655,13 +3655,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E73" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F73" s="57">
         <v>28</v>
@@ -3678,13 +3678,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E74" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F74" s="57">
         <v>29</v>
@@ -3701,13 +3701,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F75" s="57">
         <v>30</v>
@@ -3724,13 +3724,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E76" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F76" s="57">
         <v>31</v>
@@ -3747,13 +3747,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E77" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F77" s="57">
         <v>32</v>
@@ -3770,13 +3770,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F78" s="57">
         <v>33</v>
@@ -3793,13 +3793,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F79" s="57">
         <v>34</v>
@@ -3816,13 +3816,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F80" s="57">
         <v>35</v>
@@ -3839,13 +3839,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F81" s="57">
         <v>36</v>
@@ -3862,13 +3862,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F82" s="57">
         <v>37</v>
@@ -3885,13 +3885,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F83" s="57">
         <v>39</v>
@@ -3908,13 +3908,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F84" s="57">
         <v>42</v>
@@ -3931,13 +3931,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D85" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F85" s="57">
         <v>45</v>
@@ -3954,13 +3954,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D86" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F86" s="57">
         <v>47</v>
@@ -3977,13 +3977,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D87" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F87" s="57">
         <v>49</v>
@@ -4000,13 +4000,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F88" s="57">
         <v>52</v>
@@ -4023,13 +4023,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F89" s="57">
         <v>27</v>
@@ -4046,13 +4046,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F90" s="57">
         <v>28</v>
@@ -4069,13 +4069,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F91" s="57">
         <v>29</v>
@@ -4092,13 +4092,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D92" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F92" s="57">
         <v>52</v>
@@ -4115,13 +4115,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D93" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E93" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F93" s="57">
         <v>32</v>
@@ -4138,13 +4138,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D94" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F94" s="57">
         <v>32</v>
@@ -4161,13 +4161,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D95" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F95" s="57">
         <v>41</v>
@@ -4184,13 +4184,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E96" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F96" s="57">
         <v>50</v>
@@ -4207,13 +4207,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D97" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F97" s="57">
         <v>61</v>
@@ -4230,13 +4230,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D98" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F98" s="57">
         <v>32</v>
@@ -4253,13 +4253,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D99" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F99" s="57">
         <v>38</v>
@@ -4276,13 +4276,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D100" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F100" s="57">
         <v>28</v>
@@ -4299,13 +4299,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D101" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F101" s="57">
         <v>29</v>
@@ -4322,13 +4322,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D102" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F102" s="57">
         <v>30</v>
@@ -4345,13 +4345,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D103" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F103" s="57">
         <v>31</v>
@@ -4368,19 +4368,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D104" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F104" s="57">
         <v>32</v>
       </c>
       <c r="G104" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H104" s="46">
         <v>2</v>
@@ -4391,13 +4391,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D105" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F105" s="57">
         <v>35</v>
@@ -4414,13 +4414,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F106" s="57">
         <v>46</v>
@@ -4437,13 +4437,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F107" s="57">
         <v>49</v>
@@ -4460,13 +4460,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F108" s="57">
         <v>50</v>
@@ -4483,13 +4483,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D109" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F109" s="57">
         <v>52</v>
@@ -4506,13 +4506,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D110" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F110" s="57">
         <v>57</v>
@@ -4529,13 +4529,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D111" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F111" s="57">
         <v>32</v>
@@ -4549,13 +4549,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D112" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F112" s="57">
         <v>33</v>
@@ -4572,13 +4572,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F113" s="57">
         <v>34</v>
@@ -4595,13 +4595,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D114" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F114" s="57">
         <v>35</v>
@@ -4618,13 +4618,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D115" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F115" s="57">
         <v>37</v>
@@ -4641,13 +4641,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D116" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F116" s="57">
         <v>47</v>
@@ -4664,13 +4664,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D117" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E117" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F117" s="57">
         <v>58</v>
@@ -4687,13 +4687,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D118" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F118" s="57">
         <v>26</v>
@@ -4710,13 +4710,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F119" s="57">
         <v>50</v>
@@ -4733,13 +4733,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F120" s="57">
         <v>45</v>
@@ -4756,13 +4756,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E121" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F121" s="57">
         <v>49</v>
@@ -4779,13 +4779,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D122" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F122" s="57">
         <v>50</v>
@@ -4802,13 +4802,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F123" s="57">
         <v>89</v>
@@ -4825,13 +4825,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F124" s="57">
         <v>128</v>
@@ -4848,13 +4848,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F125" s="57">
         <v>34</v>
@@ -4871,13 +4871,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F126" s="57">
         <v>40</v>
@@ -4894,13 +4894,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D127" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F127" s="57">
         <v>46</v>
@@ -4909,7 +4909,7 @@
         <v>2</v>
       </c>
       <c r="H127" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
@@ -4917,13 +4917,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F128" s="57">
         <v>51</v>
@@ -4940,13 +4940,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D129" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F129" s="57">
         <v>125</v>
@@ -4963,19 +4963,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D130" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F130" s="57">
         <v>30</v>
       </c>
       <c r="G130" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H130" s="46">
         <v>1</v>
@@ -4986,13 +4986,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D131" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F131" s="57">
         <v>43</v>
@@ -5009,13 +5009,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D132" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F132" s="57">
         <v>60</v>
@@ -5032,13 +5032,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D133" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F133" s="57">
         <v>63</v>
@@ -5055,13 +5055,13 @@
         <v>9</v>
       </c>
       <c r="C134" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D134" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F134" s="57">
         <v>34</v>
@@ -5078,13 +5078,13 @@
         <v>9</v>
       </c>
       <c r="C135" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D135" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F135" s="57">
         <v>36</v>
@@ -5101,13 +5101,13 @@
         <v>9</v>
       </c>
       <c r="C136" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D136" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F136" s="57">
         <v>37</v>
@@ -5124,13 +5124,13 @@
         <v>9</v>
       </c>
       <c r="C137" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D137" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F137" s="57">
         <v>38</v>
@@ -5147,13 +5147,13 @@
         <v>9</v>
       </c>
       <c r="C138" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D138" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F138" s="57">
         <v>39</v>
@@ -5170,13 +5170,13 @@
         <v>9</v>
       </c>
       <c r="C139" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D139" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F139" s="57">
         <v>40</v>
@@ -5193,13 +5193,13 @@
         <v>9</v>
       </c>
       <c r="C140" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D140" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F140" s="57">
         <v>41</v>
@@ -5216,13 +5216,13 @@
         <v>9</v>
       </c>
       <c r="C141" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D141" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F141" s="57">
         <v>43</v>
@@ -5239,13 +5239,13 @@
         <v>9</v>
       </c>
       <c r="C142" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D142" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F142" s="57">
         <v>46</v>
@@ -5262,13 +5262,13 @@
         <v>9</v>
       </c>
       <c r="C143" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D143" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F143" s="57">
         <v>47</v>
@@ -5285,13 +5285,13 @@
         <v>9</v>
       </c>
       <c r="C144" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D144" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E144" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F144" s="57">
         <v>48</v>
@@ -5308,13 +5308,13 @@
         <v>9</v>
       </c>
       <c r="C145" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D145" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E145" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F145" s="57">
         <v>49</v>
@@ -5331,13 +5331,13 @@
         <v>9</v>
       </c>
       <c r="C146" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D146" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E146" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F146" s="57">
         <v>50</v>
@@ -5354,13 +5354,13 @@
         <v>9</v>
       </c>
       <c r="C147" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D147" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F147" s="57">
         <v>52</v>
@@ -5377,13 +5377,13 @@
         <v>9</v>
       </c>
       <c r="C148" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D148" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E148" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F148" s="57">
         <v>55</v>
@@ -5400,13 +5400,13 @@
         <v>9</v>
       </c>
       <c r="C149" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D149" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E149" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F149" s="57">
         <v>56</v>
@@ -5423,13 +5423,13 @@
         <v>9</v>
       </c>
       <c r="C150" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D150" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E150" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F150" s="57">
         <v>57</v>
@@ -5446,13 +5446,13 @@
         <v>9</v>
       </c>
       <c r="C151" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D151" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E151" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F151" s="57">
         <v>62</v>
@@ -5469,13 +5469,13 @@
         <v>9</v>
       </c>
       <c r="C152" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D152" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E152" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F152" s="57">
         <v>63</v>
@@ -5492,13 +5492,13 @@
         <v>9</v>
       </c>
       <c r="C153" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D153" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E153" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F153" s="57">
         <v>133</v>
@@ -5515,13 +5515,13 @@
         <v>9</v>
       </c>
       <c r="C154" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D154" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E154" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F154" s="57">
         <v>33</v>
@@ -5538,13 +5538,13 @@
         <v>9</v>
       </c>
       <c r="C155" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D155" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E155" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F155" s="57">
         <v>34</v>
@@ -5561,13 +5561,13 @@
         <v>9</v>
       </c>
       <c r="C156" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D156" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E156" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F156" s="57">
         <v>37</v>
@@ -5584,13 +5584,13 @@
         <v>9</v>
       </c>
       <c r="C157" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D157" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E157" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F157" s="57">
         <v>33</v>
@@ -5607,13 +5607,13 @@
         <v>9</v>
       </c>
       <c r="C158" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D158" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E158" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F158" s="57">
         <v>63</v>
@@ -5630,13 +5630,13 @@
         <v>9</v>
       </c>
       <c r="C159" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D159" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F159" s="57">
         <v>37</v>
@@ -5653,13 +5653,13 @@
         <v>9</v>
       </c>
       <c r="C160" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D160" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E160" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F160" s="57">
         <v>44</v>
@@ -5676,13 +5676,13 @@
         <v>9</v>
       </c>
       <c r="C161" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D161" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E161" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F161" s="57">
         <v>59</v>
@@ -5699,13 +5699,13 @@
         <v>9</v>
       </c>
       <c r="C162" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D162" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E162" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F162" s="57">
         <v>44</v>
@@ -5722,13 +5722,13 @@
         <v>9</v>
       </c>
       <c r="C163" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D163" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E163" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F163" s="57">
         <v>58</v>
@@ -5745,13 +5745,13 @@
         <v>9</v>
       </c>
       <c r="C164" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D164" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E164" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F164" s="57">
         <v>59</v>
@@ -5768,13 +5768,13 @@
         <v>9</v>
       </c>
       <c r="C165" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D165" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E165" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F165" s="57">
         <v>65</v>
@@ -5791,13 +5791,13 @@
         <v>9</v>
       </c>
       <c r="C166" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D166" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E166" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F166" s="57">
         <v>35</v>
@@ -5814,13 +5814,13 @@
         <v>9</v>
       </c>
       <c r="C167" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D167" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E167" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F167" s="57">
         <v>41</v>
@@ -5837,13 +5837,13 @@
         <v>9</v>
       </c>
       <c r="C168" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D168" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E168" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F168" s="57">
         <v>56</v>
@@ -5860,13 +5860,13 @@
         <v>9</v>
       </c>
       <c r="C169" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D169" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E169" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F169" s="57">
         <v>58</v>
@@ -5883,13 +5883,13 @@
         <v>9</v>
       </c>
       <c r="C170" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D170" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E170" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F170" s="57">
         <v>59</v>
@@ -5906,13 +5906,13 @@
         <v>9</v>
       </c>
       <c r="C171" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E171" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F171" s="57">
         <v>60</v>
@@ -5929,13 +5929,13 @@
         <v>9</v>
       </c>
       <c r="C172" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D172" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E172" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F172" s="57">
         <v>30</v>
@@ -5952,13 +5952,13 @@
         <v>9</v>
       </c>
       <c r="C173" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D173" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E173" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F173" s="57">
         <v>34</v>
@@ -5975,13 +5975,13 @@
         <v>9</v>
       </c>
       <c r="C174" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D174" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E174" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F174" s="57">
         <v>35</v>
@@ -5998,13 +5998,13 @@
         <v>9</v>
       </c>
       <c r="C175" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D175" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E175" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F175" s="57">
         <v>37</v>
@@ -6021,13 +6021,13 @@
         <v>9</v>
       </c>
       <c r="C176" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D176" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E176" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F176" s="57">
         <v>38</v>
@@ -6044,13 +6044,13 @@
         <v>9</v>
       </c>
       <c r="C177" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D177" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E177" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F177" s="57">
         <v>44</v>
@@ -6067,13 +6067,13 @@
         <v>9</v>
       </c>
       <c r="C178" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D178" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E178" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F178" s="57">
         <v>56</v>
@@ -6090,13 +6090,13 @@
         <v>9</v>
       </c>
       <c r="C179" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E179" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F179" s="57">
         <v>32</v>
@@ -6113,13 +6113,13 @@
         <v>9</v>
       </c>
       <c r="C180" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D180" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E180" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F180" s="57">
         <v>141</v>
@@ -6136,13 +6136,13 @@
         <v>9</v>
       </c>
       <c r="C181" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D181" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E181" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F181" s="57">
         <v>34</v>
@@ -6159,13 +6159,13 @@
         <v>9</v>
       </c>
       <c r="C182" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D182" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E182" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F182" s="57">
         <v>35</v>
@@ -6182,13 +6182,13 @@
         <v>9</v>
       </c>
       <c r="C183" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D183" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E183" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F183" s="57">
         <v>44</v>
@@ -6205,13 +6205,13 @@
         <v>9</v>
       </c>
       <c r="C184" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D184" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E184" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F184" s="57">
         <v>27</v>
@@ -6228,13 +6228,13 @@
         <v>9</v>
       </c>
       <c r="C185" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D185" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E185" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F185" s="57">
         <v>28</v>
@@ -6251,13 +6251,13 @@
         <v>9</v>
       </c>
       <c r="C186" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D186" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E186" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F186" s="57">
         <v>32</v>
@@ -6274,13 +6274,13 @@
         <v>9</v>
       </c>
       <c r="C187" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D187" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E187" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F187" s="57">
         <v>34</v>
@@ -6297,13 +6297,13 @@
         <v>9</v>
       </c>
       <c r="C188" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D188" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E188" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F188" s="57">
         <v>36</v>
@@ -6320,13 +6320,13 @@
         <v>9</v>
       </c>
       <c r="C189" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D189" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E189" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F189" s="57">
         <v>37</v>
@@ -6343,13 +6343,13 @@
         <v>9</v>
       </c>
       <c r="C190" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D190" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E190" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F190" s="57">
         <v>41</v>
@@ -6366,13 +6366,13 @@
         <v>9</v>
       </c>
       <c r="C191" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D191" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E191" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F191" s="57">
         <v>45</v>
@@ -6389,13 +6389,13 @@
         <v>9</v>
       </c>
       <c r="C192" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D192" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E192" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F192" s="57">
         <v>46</v>
@@ -6412,13 +6412,13 @@
         <v>9</v>
       </c>
       <c r="C193" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D193" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E193" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F193" s="57">
         <v>55</v>
@@ -6435,13 +6435,13 @@
         <v>9</v>
       </c>
       <c r="C194" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D194" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E194" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F194" s="57">
         <v>46</v>
@@ -6458,13 +6458,13 @@
         <v>9</v>
       </c>
       <c r="C195" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D195" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E195" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F195" s="57">
         <v>60</v>
@@ -6481,13 +6481,13 @@
         <v>9</v>
       </c>
       <c r="C196" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D196" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E196" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F196" s="57">
         <v>49</v>
@@ -6504,13 +6504,13 @@
         <v>9</v>
       </c>
       <c r="C197" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D197" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E197" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F197" s="57">
         <v>57</v>
@@ -6527,13 +6527,13 @@
         <v>9</v>
       </c>
       <c r="C198" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D198" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E198" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F198" s="57">
         <v>60</v>
@@ -6550,13 +6550,13 @@
         <v>9</v>
       </c>
       <c r="C199" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D199" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E199" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F199" s="57">
         <v>62</v>
@@ -6573,13 +6573,13 @@
         <v>9</v>
       </c>
       <c r="C200" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D200" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E200" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F200" s="57">
         <v>65</v>
@@ -6596,13 +6596,13 @@
         <v>9</v>
       </c>
       <c r="C201" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D201" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E201" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F201" s="57">
         <v>73</v>
@@ -6619,13 +6619,13 @@
         <v>9</v>
       </c>
       <c r="C202" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D202" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E202" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F202" s="57">
         <v>78</v>
@@ -6642,13 +6642,13 @@
         <v>9</v>
       </c>
       <c r="C203" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D203" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E203" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F203" s="57">
         <v>86</v>
@@ -6665,13 +6665,13 @@
         <v>9</v>
       </c>
       <c r="C204" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D204" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E204" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F204" s="57">
         <v>128</v>
@@ -6688,13 +6688,13 @@
         <v>9</v>
       </c>
       <c r="C205" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D205" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E205" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F205" s="57">
         <v>35</v>
@@ -6711,13 +6711,13 @@
         <v>9</v>
       </c>
       <c r="C206" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D206" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E206" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F206" s="57">
         <v>47</v>
@@ -6734,13 +6734,13 @@
         <v>9</v>
       </c>
       <c r="C207" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D207" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E207" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F207" s="57">
         <v>45</v>
@@ -6757,13 +6757,13 @@
         <v>9</v>
       </c>
       <c r="C208" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D208" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E208" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F208" s="57">
         <v>36</v>
@@ -6780,13 +6780,13 @@
         <v>9</v>
       </c>
       <c r="C209" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D209" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E209" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F209" s="57">
         <v>37</v>
@@ -6803,13 +6803,13 @@
         <v>9</v>
       </c>
       <c r="C210" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D210" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E210" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F210" s="57">
         <v>38</v>
@@ -6826,13 +6826,13 @@
         <v>9</v>
       </c>
       <c r="C211" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D211" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E211" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F211" s="57">
         <v>40</v>
@@ -6849,13 +6849,13 @@
         <v>9</v>
       </c>
       <c r="C212" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D212" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E212" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F212" s="57">
         <v>43</v>
@@ -6872,13 +6872,13 @@
         <v>9</v>
       </c>
       <c r="C213" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D213" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E213" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F213" s="57">
         <v>44</v>
@@ -6895,13 +6895,13 @@
         <v>9</v>
       </c>
       <c r="C214" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D214" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E214" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F214" s="57">
         <v>45</v>
@@ -6918,13 +6918,13 @@
         <v>9</v>
       </c>
       <c r="C215" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D215" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E215" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F215" s="57">
         <v>46</v>
@@ -6941,13 +6941,13 @@
         <v>9</v>
       </c>
       <c r="C216" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D216" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E216" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F216" s="57">
         <v>47</v>
@@ -6964,13 +6964,13 @@
         <v>9</v>
       </c>
       <c r="C217" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D217" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E217" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F217" s="57">
         <v>48</v>
@@ -6987,13 +6987,13 @@
         <v>9</v>
       </c>
       <c r="C218" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D218" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E218" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F218" s="57">
         <v>49</v>
@@ -7010,13 +7010,13 @@
         <v>9</v>
       </c>
       <c r="C219" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D219" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E219" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F219" s="57">
         <v>52</v>
@@ -7033,13 +7033,13 @@
         <v>9</v>
       </c>
       <c r="C220" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D220" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E220" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F220" s="57">
         <v>26</v>
@@ -7056,13 +7056,13 @@
         <v>9</v>
       </c>
       <c r="C221" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D221" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E221" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F221" s="57">
         <v>41</v>
@@ -7079,13 +7079,13 @@
         <v>9</v>
       </c>
       <c r="C222" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D222" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E222" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F222" s="57">
         <v>42</v>
@@ -7102,13 +7102,13 @@
         <v>9</v>
       </c>
       <c r="C223" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D223" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E223" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F223" s="57">
         <v>48</v>
@@ -7125,13 +7125,13 @@
         <v>9</v>
       </c>
       <c r="C224" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D224" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E224" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F224" s="57">
         <v>51</v>
@@ -7148,13 +7148,13 @@
         <v>10</v>
       </c>
       <c r="C225" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D225" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E225" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F225" s="57">
         <v>41</v>
@@ -7171,13 +7171,13 @@
         <v>10</v>
       </c>
       <c r="C226" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D226" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E226" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F226" s="57">
         <v>38</v>
@@ -7194,13 +7194,13 @@
         <v>10</v>
       </c>
       <c r="C227" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D227" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E227" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F227" s="57">
         <v>39</v>
@@ -7217,13 +7217,13 @@
         <v>10</v>
       </c>
       <c r="C228" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D228" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E228" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F228" s="57">
         <v>40</v>
@@ -7240,13 +7240,13 @@
         <v>10</v>
       </c>
       <c r="C229" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D229" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E229" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F229" s="57">
         <v>41</v>
@@ -7263,13 +7263,13 @@
         <v>10</v>
       </c>
       <c r="C230" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D230" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E230" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F230" s="57">
         <v>42</v>
@@ -7286,13 +7286,13 @@
         <v>10</v>
       </c>
       <c r="C231" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D231" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E231" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F231" s="57">
         <v>50</v>
@@ -7309,13 +7309,13 @@
         <v>10</v>
       </c>
       <c r="C232" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D232" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E232" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F232" s="57">
         <v>60</v>
@@ -7332,13 +7332,13 @@
         <v>10</v>
       </c>
       <c r="C233" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D233" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E233" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F233" s="57">
         <v>42</v>
@@ -7355,13 +7355,13 @@
         <v>10</v>
       </c>
       <c r="C234" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D234" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E234" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F234" s="57">
         <v>45</v>
@@ -7378,13 +7378,13 @@
         <v>10</v>
       </c>
       <c r="C235" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D235" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E235" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F235" s="57">
         <v>47</v>
@@ -7401,13 +7401,13 @@
         <v>10</v>
       </c>
       <c r="C236" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D236" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E236" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F236" s="57">
         <v>49</v>
@@ -7424,13 +7424,13 @@
         <v>10</v>
       </c>
       <c r="C237" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D237" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E237" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F237" s="57">
         <v>50</v>
@@ -7447,13 +7447,13 @@
         <v>10</v>
       </c>
       <c r="C238" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D238" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E238" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F238" s="57">
         <v>53</v>
@@ -7470,13 +7470,13 @@
         <v>10</v>
       </c>
       <c r="C239" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D239" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E239" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F239" s="57">
         <v>50</v>
@@ -7493,13 +7493,13 @@
         <v>10</v>
       </c>
       <c r="C240" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D240" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E240" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F240" s="57">
         <v>31</v>
@@ -7516,13 +7516,13 @@
         <v>10</v>
       </c>
       <c r="C241" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D241" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E241" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F241" s="57">
         <v>34</v>
@@ -7539,13 +7539,13 @@
         <v>10</v>
       </c>
       <c r="C242" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D242" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E242" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F242" s="57">
         <v>36</v>
@@ -7562,13 +7562,13 @@
         <v>10</v>
       </c>
       <c r="C243" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D243" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E243" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F243" s="57">
         <v>39</v>
@@ -7585,13 +7585,13 @@
         <v>10</v>
       </c>
       <c r="C244" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D244" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E244" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F244" s="57">
         <v>40</v>
@@ -7608,13 +7608,13 @@
         <v>10</v>
       </c>
       <c r="C245" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D245" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E245" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F245" s="57">
         <v>43</v>
@@ -7631,13 +7631,13 @@
         <v>10</v>
       </c>
       <c r="C246" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D246" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E246" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F246" s="57">
         <v>44</v>
@@ -7654,13 +7654,13 @@
         <v>10</v>
       </c>
       <c r="C247" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D247" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E247" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F247" s="57">
         <v>53</v>
@@ -7677,13 +7677,13 @@
         <v>10</v>
       </c>
       <c r="C248" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D248" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E248" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F248" s="57">
         <v>51</v>
@@ -7700,13 +7700,13 @@
         <v>10</v>
       </c>
       <c r="C249" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D249" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E249" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F249" s="57">
         <v>32</v>
@@ -7723,13 +7723,13 @@
         <v>10</v>
       </c>
       <c r="C250" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D250" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E250" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F250" s="57">
         <v>38</v>
@@ -7746,13 +7746,13 @@
         <v>10</v>
       </c>
       <c r="C251" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D251" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E251" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F251" s="57">
         <v>41</v>
@@ -7769,13 +7769,13 @@
         <v>10</v>
       </c>
       <c r="C252" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D252" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E252" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F252" s="57">
         <v>46</v>
@@ -7792,13 +7792,13 @@
         <v>10</v>
       </c>
       <c r="C253" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D253" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E253" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F253" s="57">
         <v>51</v>
@@ -7815,13 +7815,13 @@
         <v>10</v>
       </c>
       <c r="C254" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D254" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E254" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F254" s="57">
         <v>31</v>
@@ -7838,13 +7838,13 @@
         <v>10</v>
       </c>
       <c r="C255" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D255" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E255" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F255" s="57">
         <v>32</v>
@@ -7861,13 +7861,13 @@
         <v>10</v>
       </c>
       <c r="C256" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D256" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E256" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F256" s="57">
         <v>33</v>
@@ -7884,13 +7884,13 @@
         <v>10</v>
       </c>
       <c r="C257" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D257" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E257" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F257" s="57">
         <v>40</v>
@@ -7907,13 +7907,13 @@
         <v>10</v>
       </c>
       <c r="C258" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D258" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E258" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F258" s="57">
         <v>41</v>
@@ -7930,13 +7930,13 @@
         <v>10</v>
       </c>
       <c r="C259" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D259" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E259" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F259" s="57">
         <v>42</v>
@@ -7953,13 +7953,13 @@
         <v>10</v>
       </c>
       <c r="C260" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D260" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E260" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F260" s="57">
         <v>43</v>
@@ -7976,13 +7976,13 @@
         <v>10</v>
       </c>
       <c r="C261" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D261" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E261" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F261" s="57">
         <v>44</v>
@@ -7999,13 +7999,13 @@
         <v>10</v>
       </c>
       <c r="C262" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D262" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E262" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F262" s="57">
         <v>45</v>
@@ -8022,13 +8022,13 @@
         <v>10</v>
       </c>
       <c r="C263" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D263" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E263" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F263" s="57">
         <v>56</v>
@@ -8045,13 +8045,13 @@
         <v>10</v>
       </c>
       <c r="C264" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D264" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E264" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F264" s="57">
         <v>33</v>
@@ -8068,13 +8068,13 @@
         <v>10</v>
       </c>
       <c r="C265" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D265" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E265" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F265" s="57">
         <v>38</v>
@@ -8091,13 +8091,13 @@
         <v>10</v>
       </c>
       <c r="C266" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D266" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E266" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F266" s="57">
         <v>56</v>
@@ -8114,13 +8114,13 @@
         <v>10</v>
       </c>
       <c r="C267" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D267" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E267" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F267" s="57">
         <v>62</v>
@@ -8137,13 +8137,13 @@
         <v>10</v>
       </c>
       <c r="C268" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D268" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E268" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F268" s="57">
         <v>32</v>
@@ -8160,13 +8160,13 @@
         <v>10</v>
       </c>
       <c r="C269" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D269" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E269" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F269" s="57">
         <v>33</v>
@@ -8183,13 +8183,13 @@
         <v>10</v>
       </c>
       <c r="C270" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D270" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E270" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F270" s="57">
         <v>35</v>
@@ -8206,13 +8206,13 @@
         <v>10</v>
       </c>
       <c r="C271" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D271" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E271" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F271" s="57">
         <v>37</v>
@@ -8229,13 +8229,13 @@
         <v>10</v>
       </c>
       <c r="C272" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D272" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E272" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F272" s="57">
         <v>38</v>
@@ -8252,13 +8252,13 @@
         <v>10</v>
       </c>
       <c r="C273" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D273" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E273" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F273" s="57">
         <v>39</v>
@@ -8275,13 +8275,13 @@
         <v>10</v>
       </c>
       <c r="C274" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D274" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E274" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F274" s="57">
         <v>41</v>
@@ -8298,13 +8298,13 @@
         <v>10</v>
       </c>
       <c r="C275" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D275" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E275" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F275" s="57">
         <v>43</v>
@@ -8321,13 +8321,13 @@
         <v>10</v>
       </c>
       <c r="C276" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D276" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E276" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F276" s="57">
         <v>44</v>
@@ -8344,13 +8344,13 @@
         <v>10</v>
       </c>
       <c r="C277" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D277" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E277" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F277" s="57">
         <v>47</v>
@@ -8367,13 +8367,13 @@
         <v>10</v>
       </c>
       <c r="C278" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D278" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E278" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F278" s="57">
         <v>53</v>
@@ -8390,13 +8390,13 @@
         <v>10</v>
       </c>
       <c r="C279" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D279" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E279" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F279" s="57">
         <v>56</v>
@@ -8413,13 +8413,13 @@
         <v>10</v>
       </c>
       <c r="C280" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D280" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E280" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F280" s="57">
         <v>57</v>
@@ -8436,13 +8436,13 @@
         <v>10</v>
       </c>
       <c r="C281" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D281" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E281" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F281" s="57">
         <v>62</v>
@@ -8459,13 +8459,13 @@
         <v>10</v>
       </c>
       <c r="C282" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D282" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E282" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F282" s="57">
         <v>63</v>
@@ -8482,13 +8482,13 @@
         <v>10</v>
       </c>
       <c r="C283" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D283" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E283" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F283" s="57">
         <v>44</v>
@@ -8505,13 +8505,13 @@
         <v>10</v>
       </c>
       <c r="C284" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D284" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E284" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F284" s="57">
         <v>53</v>
@@ -8528,13 +8528,13 @@
         <v>10</v>
       </c>
       <c r="C285" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D285" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E285" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F285" s="57">
         <v>32</v>
@@ -8551,13 +8551,13 @@
         <v>10</v>
       </c>
       <c r="C286" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D286" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E286" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F286" s="57">
         <v>49</v>
@@ -8574,13 +8574,13 @@
         <v>10</v>
       </c>
       <c r="C287" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D287" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E287" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F287" s="57">
         <v>38</v>
@@ -8597,13 +8597,13 @@
         <v>10</v>
       </c>
       <c r="C288" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D288" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E288" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F288" s="57">
         <v>40</v>
@@ -8620,13 +8620,13 @@
         <v>10</v>
       </c>
       <c r="C289" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D289" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E289" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F289" s="57">
         <v>44</v>
@@ -8643,13 +8643,13 @@
         <v>10</v>
       </c>
       <c r="C290" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D290" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E290" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F290" s="57">
         <v>46</v>
@@ -8666,13 +8666,13 @@
         <v>10</v>
       </c>
       <c r="C291" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D291" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E291" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F291" s="57">
         <v>120</v>
@@ -8689,13 +8689,13 @@
         <v>10</v>
       </c>
       <c r="C292" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D292" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E292" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F292" s="57">
         <v>128</v>
@@ -8712,13 +8712,13 @@
         <v>10</v>
       </c>
       <c r="C293" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D293" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E293" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F293" s="57">
         <v>45</v>
@@ -8735,13 +8735,13 @@
         <v>10</v>
       </c>
       <c r="C294" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D294" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E294" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F294" s="57">
         <v>47</v>
@@ -8758,13 +8758,13 @@
         <v>10</v>
       </c>
       <c r="C295" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D295" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E295" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F295" s="57">
         <v>49</v>
@@ -8781,13 +8781,13 @@
         <v>11</v>
       </c>
       <c r="C296" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D296" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E296" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F296" s="57">
         <v>39</v>
@@ -8804,13 +8804,13 @@
         <v>11</v>
       </c>
       <c r="C297" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D297" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E297" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F297" s="57">
         <v>40</v>
@@ -8827,13 +8827,13 @@
         <v>11</v>
       </c>
       <c r="C298" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D298" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E298" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F298" s="57">
         <v>41</v>
@@ -8850,13 +8850,13 @@
         <v>11</v>
       </c>
       <c r="C299" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D299" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E299" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F299" s="57">
         <v>42</v>
@@ -8873,13 +8873,13 @@
         <v>11</v>
       </c>
       <c r="C300" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D300" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E300" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F300" s="57">
         <v>44</v>
@@ -8896,13 +8896,13 @@
         <v>11</v>
       </c>
       <c r="C301" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D301" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E301" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F301" s="57">
         <v>57</v>
@@ -8919,13 +8919,13 @@
         <v>11</v>
       </c>
       <c r="C302" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D302" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E302" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F302" s="57">
         <v>32</v>
@@ -8942,13 +8942,13 @@
         <v>11</v>
       </c>
       <c r="C303" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D303" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E303" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F303" s="57">
         <v>34</v>
@@ -8965,13 +8965,13 @@
         <v>11</v>
       </c>
       <c r="C304" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D304" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E304" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F304" s="57">
         <v>51</v>
@@ -8988,13 +8988,13 @@
         <v>11</v>
       </c>
       <c r="C305" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D305" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E305" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F305" s="57">
         <v>52</v>
@@ -9011,13 +9011,13 @@
         <v>11</v>
       </c>
       <c r="C306" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D306" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E306" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F306" s="57">
         <v>38</v>
@@ -9034,13 +9034,13 @@
         <v>11</v>
       </c>
       <c r="C307" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D307" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E307" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F307" s="57">
         <v>39</v>
@@ -9057,13 +9057,13 @@
         <v>11</v>
       </c>
       <c r="C308" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D308" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E308" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F308" s="57">
         <v>40</v>
@@ -9080,13 +9080,13 @@
         <v>11</v>
       </c>
       <c r="C309" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D309" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E309" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F309" s="57">
         <v>41</v>
@@ -9103,13 +9103,13 @@
         <v>11</v>
       </c>
       <c r="C310" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D310" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E310" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F310" s="57">
         <v>34</v>
@@ -9126,13 +9126,13 @@
         <v>11</v>
       </c>
       <c r="C311" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D311" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E311" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F311" s="57">
         <v>38</v>
@@ -9149,13 +9149,13 @@
         <v>11</v>
       </c>
       <c r="C312" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D312" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E312" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F312" s="57">
         <v>39</v>
@@ -9172,13 +9172,13 @@
         <v>11</v>
       </c>
       <c r="C313" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D313" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E313" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F313" s="57">
         <v>40</v>
@@ -9195,13 +9195,13 @@
         <v>11</v>
       </c>
       <c r="C314" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D314" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E314" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F314" s="57">
         <v>42</v>
@@ -9218,13 +9218,13 @@
         <v>11</v>
       </c>
       <c r="C315" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D315" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E315" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F315" s="57">
         <v>50</v>
@@ -9241,13 +9241,13 @@
         <v>11</v>
       </c>
       <c r="C316" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D316" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E316" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F316" s="57">
         <v>61</v>
@@ -9264,13 +9264,13 @@
         <v>11</v>
       </c>
       <c r="C317" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D317" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E317" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F317" s="57">
         <v>62</v>
@@ -9287,13 +9287,13 @@
         <v>11</v>
       </c>
       <c r="C318" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D318" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E318" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F318" s="57">
         <v>63</v>
@@ -9310,13 +9310,13 @@
         <v>11</v>
       </c>
       <c r="C319" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D319" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E319" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F319" s="57">
         <v>64</v>
@@ -9333,13 +9333,13 @@
         <v>11</v>
       </c>
       <c r="C320" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D320" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E320" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F320" s="57">
         <v>134</v>
@@ -9356,13 +9356,13 @@
         <v>11</v>
       </c>
       <c r="C321" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D321" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E321" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F321" s="57">
         <v>33</v>
@@ -9379,13 +9379,13 @@
         <v>11</v>
       </c>
       <c r="C322" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D322" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E322" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F322" s="57">
         <v>37</v>
@@ -9402,13 +9402,13 @@
         <v>11</v>
       </c>
       <c r="C323" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D323" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E323" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F323" s="57">
         <v>38</v>
@@ -9425,13 +9425,13 @@
         <v>11</v>
       </c>
       <c r="C324" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D324" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E324" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F324" s="57">
         <v>39</v>
@@ -9448,13 +9448,13 @@
         <v>11</v>
       </c>
       <c r="C325" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D325" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E325" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F325" s="57">
         <v>40</v>
@@ -9471,13 +9471,13 @@
         <v>11</v>
       </c>
       <c r="C326" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D326" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E326" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F326" s="57">
         <v>41</v>
@@ -9494,13 +9494,13 @@
         <v>11</v>
       </c>
       <c r="C327" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D327" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E327" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F327" s="57">
         <v>43</v>
@@ -9517,13 +9517,13 @@
         <v>11</v>
       </c>
       <c r="C328" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D328" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E328" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F328" s="57">
         <v>65</v>
@@ -9540,13 +9540,13 @@
         <v>11</v>
       </c>
       <c r="C329" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D329" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E329" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F329" s="57">
         <v>36</v>
@@ -9563,13 +9563,13 @@
         <v>11</v>
       </c>
       <c r="C330" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D330" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E330" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F330" s="57">
         <v>37</v>
@@ -9586,13 +9586,13 @@
         <v>11</v>
       </c>
       <c r="C331" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D331" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E331" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F331" s="57">
         <v>38</v>
@@ -9609,13 +9609,13 @@
         <v>11</v>
       </c>
       <c r="C332" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D332" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E332" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F332" s="57">
         <v>39</v>
@@ -9632,13 +9632,13 @@
         <v>11</v>
       </c>
       <c r="C333" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D333" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E333" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F333" s="57">
         <v>32</v>
@@ -9655,13 +9655,13 @@
         <v>11</v>
       </c>
       <c r="C334" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D334" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E334" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F334" s="57">
         <v>34</v>
@@ -9678,13 +9678,13 @@
         <v>11</v>
       </c>
       <c r="C335" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D335" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E335" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F335" s="57">
         <v>40</v>
@@ -9701,13 +9701,13 @@
         <v>11</v>
       </c>
       <c r="C336" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D336" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E336" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F336" s="57">
         <v>37</v>
@@ -9724,13 +9724,13 @@
         <v>11</v>
       </c>
       <c r="C337" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D337" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E337" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F337" s="57">
         <v>29</v>
@@ -9747,13 +9747,13 @@
         <v>11</v>
       </c>
       <c r="C338" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D338" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E338" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F338" s="57">
         <v>31</v>
@@ -9770,13 +9770,13 @@
         <v>11</v>
       </c>
       <c r="C339" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D339" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E339" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F339" s="57">
         <v>33</v>
@@ -9793,13 +9793,13 @@
         <v>11</v>
       </c>
       <c r="C340" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D340" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E340" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F340" s="57">
         <v>34</v>
@@ -9816,13 +9816,13 @@
         <v>11</v>
       </c>
       <c r="C341" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D341" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E341" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F341" s="57">
         <v>42</v>
@@ -9839,13 +9839,13 @@
         <v>11</v>
       </c>
       <c r="C342" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D342" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E342" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F342" s="57">
         <v>37</v>
@@ -9862,13 +9862,13 @@
         <v>11</v>
       </c>
       <c r="C343" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D343" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E343" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F343" s="57">
         <v>38</v>
@@ -9885,13 +9885,13 @@
         <v>11</v>
       </c>
       <c r="C344" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D344" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E344" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F344" s="57">
         <v>39</v>
@@ -9908,13 +9908,13 @@
         <v>11</v>
       </c>
       <c r="C345" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D345" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E345" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F345" s="57">
         <v>40</v>
@@ -9931,13 +9931,13 @@
         <v>11</v>
       </c>
       <c r="C346" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D346" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E346" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F346" s="57">
         <v>41</v>
@@ -9954,13 +9954,13 @@
         <v>11</v>
       </c>
       <c r="C347" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D347" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E347" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F347" s="57">
         <v>128</v>
@@ -9977,13 +9977,13 @@
         <v>11</v>
       </c>
       <c r="C348" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D348" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E348" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F348" s="57">
         <v>51</v>
@@ -10000,13 +10000,13 @@
         <v>11</v>
       </c>
       <c r="C349" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D349" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E349" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F349" s="57">
         <v>64</v>
@@ -10023,13 +10023,13 @@
         <v>11</v>
       </c>
       <c r="C350" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D350" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E350" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F350" s="57">
         <v>53</v>
@@ -10046,13 +10046,13 @@
         <v>11</v>
       </c>
       <c r="C351" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D351" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E351" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F351" s="57">
         <v>54</v>
@@ -10069,13 +10069,13 @@
         <v>12</v>
       </c>
       <c r="C352" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D352" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E352" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F352" s="57">
         <v>24</v>
@@ -10092,13 +10092,13 @@
         <v>12</v>
       </c>
       <c r="C353" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D353" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E353" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F353" s="57">
         <v>28</v>
@@ -10115,13 +10115,13 @@
         <v>12</v>
       </c>
       <c r="C354" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D354" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E354" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F354" s="57">
         <v>43</v>
@@ -10138,13 +10138,13 @@
         <v>12</v>
       </c>
       <c r="C355" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D355" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E355" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F355" s="57">
         <v>45</v>
@@ -10161,13 +10161,13 @@
         <v>12</v>
       </c>
       <c r="C356" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D356" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E356" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F356" s="57">
         <v>109</v>
@@ -10184,13 +10184,13 @@
         <v>12</v>
       </c>
       <c r="C357" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D357" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E357" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F357" s="57">
         <v>50</v>
@@ -10207,13 +10207,13 @@
         <v>12</v>
       </c>
       <c r="C358" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D358" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E358" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F358" s="57">
         <v>52</v>
@@ -10230,13 +10230,13 @@
         <v>12</v>
       </c>
       <c r="C359" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D359" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E359" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F359" s="57">
         <v>59</v>
@@ -10253,13 +10253,13 @@
         <v>12</v>
       </c>
       <c r="C360" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D360" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E360" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F360" s="57">
         <v>130</v>
@@ -10276,13 +10276,13 @@
         <v>12</v>
       </c>
       <c r="C361" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D361" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E361" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F361" s="57">
         <v>41</v>
@@ -10299,13 +10299,13 @@
         <v>12</v>
       </c>
       <c r="C362" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D362" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E362" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F362" s="57">
         <v>126</v>
@@ -10322,13 +10322,13 @@
         <v>12</v>
       </c>
       <c r="C363" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D363" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E363" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F363" s="57">
         <v>33</v>
@@ -10345,13 +10345,13 @@
         <v>12</v>
       </c>
       <c r="C364" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D364" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E364" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F364" s="57">
         <v>118</v>
@@ -10368,13 +10368,13 @@
         <v>12</v>
       </c>
       <c r="C365" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D365" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E365" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F365" s="57">
         <v>126</v>
@@ -10391,13 +10391,13 @@
         <v>12</v>
       </c>
       <c r="C366" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D366" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E366" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F366" s="57">
         <v>28</v>
@@ -10414,13 +10414,13 @@
         <v>12</v>
       </c>
       <c r="C367" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D367" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E367" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F367" s="57">
         <v>30</v>
@@ -10437,13 +10437,13 @@
         <v>12</v>
       </c>
       <c r="C368" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D368" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E368" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F368" s="57">
         <v>31</v>
@@ -10460,13 +10460,13 @@
         <v>12</v>
       </c>
       <c r="C369" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D369" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E369" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F369" s="57">
         <v>32</v>
@@ -10483,13 +10483,13 @@
         <v>12</v>
       </c>
       <c r="C370" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D370" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E370" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F370" s="57">
         <v>34</v>
@@ -10506,13 +10506,13 @@
         <v>12</v>
       </c>
       <c r="C371" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D371" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E371" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F371" s="57">
         <v>36</v>
@@ -10529,13 +10529,13 @@
         <v>12</v>
       </c>
       <c r="C372" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D372" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E372" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F372" s="57">
         <v>46</v>
@@ -10552,13 +10552,13 @@
         <v>12</v>
       </c>
       <c r="C373" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D373" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E373" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F373" s="57">
         <v>47</v>
@@ -10575,13 +10575,13 @@
         <v>12</v>
       </c>
       <c r="C374" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D374" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E374" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F374" s="57">
         <v>63</v>
@@ -10598,13 +10598,13 @@
         <v>12</v>
       </c>
       <c r="C375" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D375" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E375" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F375" s="57">
         <v>126</v>
@@ -10621,13 +10621,13 @@
         <v>12</v>
       </c>
       <c r="C376" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D376" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E376" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F376" s="57">
         <v>128</v>
@@ -10644,13 +10644,13 @@
         <v>12</v>
       </c>
       <c r="C377" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D377" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E377" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F377" s="57">
         <v>139</v>
@@ -10667,13 +10667,13 @@
         <v>12</v>
       </c>
       <c r="C378" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D378" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E378" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F378" s="57">
         <v>41</v>
@@ -10690,13 +10690,13 @@
         <v>12</v>
       </c>
       <c r="C379" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D379" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E379" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F379" s="57">
         <v>44</v>
@@ -10713,13 +10713,13 @@
         <v>12</v>
       </c>
       <c r="C380" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D380" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E380" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F380" s="57">
         <v>124</v>
@@ -10736,13 +10736,13 @@
         <v>12</v>
       </c>
       <c r="C381" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D381" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E381" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F381" s="57">
         <v>126</v>
@@ -10759,13 +10759,13 @@
         <v>12</v>
       </c>
       <c r="C382" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D382" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E382" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F382" s="57">
         <v>31</v>
@@ -10782,13 +10782,13 @@
         <v>12</v>
       </c>
       <c r="C383" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D383" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E383" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F383" s="57">
         <v>33</v>
@@ -10805,13 +10805,13 @@
         <v>12</v>
       </c>
       <c r="C384" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D384" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E384" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F384" s="57">
         <v>37</v>
@@ -10828,13 +10828,13 @@
         <v>12</v>
       </c>
       <c r="C385" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D385" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E385" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F385" s="57">
         <v>40</v>
@@ -10851,13 +10851,13 @@
         <v>12</v>
       </c>
       <c r="C386" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D386" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E386" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F386" s="57">
         <v>41</v>
@@ -10874,13 +10874,13 @@
         <v>12</v>
       </c>
       <c r="C387" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D387" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E387" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F387" s="57">
         <v>132</v>
@@ -10897,13 +10897,13 @@
         <v>12</v>
       </c>
       <c r="C388" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D388" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E388" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F388" s="57">
         <v>32</v>
@@ -10920,13 +10920,13 @@
         <v>12</v>
       </c>
       <c r="C389" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D389" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E389" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F389" s="57">
         <v>60</v>
@@ -10943,13 +10943,13 @@
         <v>12</v>
       </c>
       <c r="C390" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D390" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E390" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F390" s="57">
         <v>119</v>
@@ -10966,13 +10966,13 @@
         <v>12</v>
       </c>
       <c r="C391" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D391" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E391" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F391" s="57">
         <v>32</v>
@@ -10989,13 +10989,13 @@
         <v>12</v>
       </c>
       <c r="C392" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D392" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E392" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F392" s="57">
         <v>33</v>
@@ -11012,13 +11012,13 @@
         <v>12</v>
       </c>
       <c r="C393" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D393" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E393" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F393" s="57">
         <v>34</v>
@@ -11035,13 +11035,13 @@
         <v>12</v>
       </c>
       <c r="C394" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D394" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E394" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F394" s="57">
         <v>42</v>
@@ -11058,13 +11058,13 @@
         <v>12</v>
       </c>
       <c r="C395" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D395" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E395" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F395" s="57">
         <v>46</v>
@@ -11081,13 +11081,13 @@
         <v>12</v>
       </c>
       <c r="C396" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D396" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E396" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F396" s="57">
         <v>48</v>
@@ -11104,13 +11104,13 @@
         <v>12</v>
       </c>
       <c r="C397" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D397" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E397" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F397" s="57">
         <v>56</v>
@@ -11127,13 +11127,13 @@
         <v>12</v>
       </c>
       <c r="C398" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D398" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E398" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F398" s="57">
         <v>39</v>
@@ -11150,13 +11150,13 @@
         <v>12</v>
       </c>
       <c r="C399" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D399" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E399" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F399" s="57">
         <v>29</v>
@@ -11173,13 +11173,13 @@
         <v>12</v>
       </c>
       <c r="C400" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D400" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E400" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F400" s="57">
         <v>33</v>
@@ -11196,13 +11196,13 @@
         <v>12</v>
       </c>
       <c r="C401" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D401" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E401" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F401" s="57">
         <v>34</v>
@@ -11219,13 +11219,13 @@
         <v>12</v>
       </c>
       <c r="C402" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D402" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E402" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F402" s="57">
         <v>35</v>
@@ -11242,13 +11242,13 @@
         <v>12</v>
       </c>
       <c r="C403" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D403" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E403" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F403" s="57">
         <v>36</v>
@@ -11265,13 +11265,13 @@
         <v>12</v>
       </c>
       <c r="C404" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D404" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E404" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F404" s="57">
         <v>39</v>
@@ -11288,13 +11288,13 @@
         <v>12</v>
       </c>
       <c r="C405" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D405" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E405" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F405" s="57">
         <v>42</v>
@@ -11311,13 +11311,13 @@
         <v>12</v>
       </c>
       <c r="C406" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D406" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E406" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F406" s="57">
         <v>43</v>
@@ -11334,13 +11334,13 @@
         <v>12</v>
       </c>
       <c r="C407" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D407" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E407" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F407" s="57">
         <v>44</v>
@@ -11357,13 +11357,13 @@
         <v>12</v>
       </c>
       <c r="C408" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D408" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E408" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F408" s="57">
         <v>45</v>
@@ -11380,13 +11380,13 @@
         <v>12</v>
       </c>
       <c r="C409" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D409" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E409" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F409" s="57">
         <v>53</v>
@@ -11403,13 +11403,13 @@
         <v>12</v>
       </c>
       <c r="C410" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D410" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E410" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F410" s="57">
         <v>67</v>
@@ -11426,13 +11426,13 @@
         <v>12</v>
       </c>
       <c r="C411" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D411" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E411" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F411" s="57">
         <v>35</v>
@@ -11449,13 +11449,13 @@
         <v>12</v>
       </c>
       <c r="C412" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D412" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E412" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F412" s="57">
         <v>43</v>
@@ -11472,13 +11472,13 @@
         <v>12</v>
       </c>
       <c r="C413" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D413" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E413" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F413" s="57">
         <v>62</v>
@@ -11495,13 +11495,13 @@
         <v>12</v>
       </c>
       <c r="C414" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D414" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E414" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F414" s="57">
         <v>51</v>
@@ -11518,13 +11518,13 @@
         <v>12</v>
       </c>
       <c r="C415" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D415" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E415" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F415" s="57">
         <v>36</v>
@@ -11541,13 +11541,13 @@
         <v>12</v>
       </c>
       <c r="C416" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D416" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E416" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F416" s="57">
         <v>44</v>
@@ -11564,13 +11564,13 @@
         <v>12</v>
       </c>
       <c r="C417" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D417" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E417" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F417" s="57">
         <v>50</v>
@@ -11587,13 +11587,13 @@
         <v>12</v>
       </c>
       <c r="C418" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D418" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E418" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F418" s="57">
         <v>42</v>
@@ -11610,13 +11610,13 @@
         <v>12</v>
       </c>
       <c r="C419" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D419" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E419" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F419" s="57">
         <v>48</v>
@@ -11633,13 +11633,13 @@
         <v>12</v>
       </c>
       <c r="C420" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D420" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E420" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F420" s="57">
         <v>53</v>
@@ -11656,13 +11656,13 @@
         <v>12</v>
       </c>
       <c r="C421" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D421" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E421" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F421" s="57">
         <v>57</v>
@@ -11679,13 +11679,13 @@
         <v>12</v>
       </c>
       <c r="C422" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D422" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E422" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F422" s="57">
         <v>28</v>
@@ -11702,13 +11702,13 @@
         <v>12</v>
       </c>
       <c r="C423" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D423" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E423" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F423" s="57">
         <v>30</v>
@@ -11725,13 +11725,13 @@
         <v>12</v>
       </c>
       <c r="C424" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D424" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E424" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F424" s="57">
         <v>87</v>
@@ -11748,13 +11748,13 @@
         <v>12</v>
       </c>
       <c r="C425" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D425" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E425" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F425" s="57">
         <v>107</v>
@@ -11771,13 +11771,13 @@
         <v>12</v>
       </c>
       <c r="C426" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D426" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E426" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F426" s="57">
         <v>137</v>
@@ -11794,13 +11794,13 @@
         <v>12</v>
       </c>
       <c r="C427" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D427" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E427" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F427" s="57">
         <v>31</v>
@@ -11817,13 +11817,13 @@
         <v>12</v>
       </c>
       <c r="C428" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D428" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E428" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F428" s="57">
         <v>54</v>
@@ -11840,13 +11840,13 @@
         <v>12</v>
       </c>
       <c r="C429" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D429" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E429" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F429" s="57">
         <v>88</v>
@@ -11863,13 +11863,13 @@
         <v>12</v>
       </c>
       <c r="C430" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D430" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E430" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F430" s="57">
         <v>53</v>
@@ -11886,13 +11886,13 @@
         <v>12</v>
       </c>
       <c r="C431" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D431" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E431" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F431" s="57">
         <v>110</v>
@@ -11909,13 +11909,13 @@
         <v>12</v>
       </c>
       <c r="C432" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D432" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E432" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F432" s="57">
         <v>33</v>
@@ -11932,13 +11932,13 @@
         <v>12</v>
       </c>
       <c r="C433" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D433" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E433" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F433" s="57">
         <v>35</v>

--- a/test/sample_forms/Form-4SF-update.xlsx
+++ b/test/sample_forms/Form-4SF-update.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\base\forms\base-form-management\test\sample_forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FBD204-F45F-4AC4-A2E8-9A1D162EB0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4487457-D137-437D-B6AF-7E1306BEE241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1527,7 +1527,7 @@
   <dimension ref="B1:H38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,7 +2030,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:H433"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
